--- a/docs/plantillas/Plantilla_Inscripcion.xlsx
+++ b/docs/plantillas/Plantilla_Inscripcion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PERSONAL\JUAN\CORPOCEMPED\ProyectoSistemas\SistemaCORPOCEMPED\public\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Documents\SISTEMAS\SistemaCORPOCEMPED\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362DEBB-5777-445A-8BD3-B0BBC6B60631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMATO" sheetId="2" r:id="rId1"/>
@@ -261,8 +262,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,6 +347,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -651,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,21 +729,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -753,80 +759,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,9 +912,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,9 +952,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,7 +989,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,7 +1024,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1197,14 +1197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="94" zoomScaleNormal="80" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:S29"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1233,114 +1233,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="53"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="57"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="49"/>
     </row>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="57"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="34" t="s">
@@ -1458,18 +1458,18 @@
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="49" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="23" t="s">
         <v>5</v>
       </c>
@@ -1485,14 +1485,14 @@
       <c r="L9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="49" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="50"/>
+      <c r="P9" s="42"/>
       <c r="Q9" s="24" t="s">
         <v>9</v>
       </c>
@@ -1509,487 +1509,576 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="41"/>
-    </row>
-    <row r="11" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="41"/>
-    </row>
-    <row r="12" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="43"/>
-    </row>
-    <row r="13" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="43"/>
-    </row>
-    <row r="14" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="43"/>
-    </row>
-    <row r="15" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="43"/>
-    </row>
-    <row r="16" spans="1:21" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="43"/>
-    </row>
-    <row r="17" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="43"/>
-    </row>
-    <row r="18" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="43"/>
-    </row>
-    <row r="20" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="43"/>
-    </row>
-    <row r="21" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="43"/>
-    </row>
-    <row r="22" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="43"/>
-    </row>
-    <row r="23" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="43"/>
-    </row>
-    <row r="24" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="43"/>
-    </row>
-    <row r="25" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="43"/>
-    </row>
-    <row r="26" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="43"/>
-    </row>
-    <row r="27" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="43"/>
-    </row>
-    <row r="28" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="43"/>
-    </row>
-    <row r="29" spans="1:20" s="42" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="43"/>
+    <row r="10" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="60"/>
+    </row>
+    <row r="11" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="60"/>
+    </row>
+    <row r="12" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="61"/>
+    </row>
+    <row r="13" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="61"/>
+    </row>
+    <row r="14" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="61"/>
+    </row>
+    <row r="15" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="61"/>
+    </row>
+    <row r="16" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="61"/>
+    </row>
+    <row r="17" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="61"/>
+    </row>
+    <row r="18" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="61"/>
+    </row>
+    <row r="19" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="61"/>
+    </row>
+    <row r="20" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="61"/>
+    </row>
+    <row r="21" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="61"/>
+    </row>
+    <row r="22" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="61"/>
+    </row>
+    <row r="23" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="61"/>
+    </row>
+    <row r="24" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="61"/>
+    </row>
+    <row r="25" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="61"/>
+    </row>
+    <row r="26" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="61"/>
+    </row>
+    <row r="27" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="61"/>
+    </row>
+    <row r="28" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="61"/>
+    </row>
+    <row r="29" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="E2:S3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A31:Q32"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2014,107 +2103,18 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="E2:S3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="14" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="46" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter scaleWithDoc="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/docs/plantillas/Plantilla_Inscripcion.xlsx
+++ b/docs/plantillas/Plantilla_Inscripcion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Documents\SISTEMAS\SistemaCORPOCEMPED\public\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PERSONAL\JUAN\CORPOCEMPED\ProyectoSistemas\SistemaCORPOCEMPED\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362DEBB-5777-445A-8BD3-B0BBC6B60631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="FORMATO" sheetId="2" r:id="rId1"/>
@@ -262,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -762,6 +761,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -771,6 +782,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,24 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,9 +911,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,9 +951,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,7 +988,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,7 +1023,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1197,14 +1196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="94" zoomScaleNormal="80" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F20" zoomScale="94" zoomScaleNormal="80" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1233,114 +1232,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="49"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="49"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="55"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="34" t="s">
@@ -1458,18 +1457,18 @@
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="23" t="s">
         <v>5</v>
       </c>
@@ -1485,14 +1484,14 @@
       <c r="L9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="41" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="42"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="24" t="s">
         <v>9</v>
       </c>
@@ -1510,483 +1509,483 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="60"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="42"/>
     </row>
     <row r="11" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="60"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="42"/>
     </row>
     <row r="12" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="61"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="61"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="61"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="61"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="43"/>
     </row>
     <row r="16" spans="1:21" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="61"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="61"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="43"/>
     </row>
     <row r="18" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="61"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="61"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="61"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="61"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="43"/>
     </row>
     <row r="22" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="61"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="43"/>
     </row>
     <row r="23" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="61"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="43"/>
     </row>
     <row r="24" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="61"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="61"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="61"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="61"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="61"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="1:20" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="61"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="113">
@@ -2107,14 +2106,14 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="14" scale="46" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter scaleWithDoc="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
